--- a/Panels/parameter_estimates_Omega_PresenceAbsence_year.xlsx
+++ b/Panels/parameter_estimates_Omega_PresenceAbsence_year.xlsx
@@ -362,69 +362,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -467,7 +467,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -510,7 +510,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -639,7 +639,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.9623585006462237</v>
+        <v>0.9623585006462238</v>
       </c>
       <c r="I7">
         <v>0.9682611861632223</v>
@@ -682,7 +682,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -701,7 +701,7 @@
         <v>0.9835858781730961</v>
       </c>
       <c r="G8">
-        <v>0.9623585006462237</v>
+        <v>0.9623585006462238</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -713,7 +713,7 @@
         <v>0.8210412023395602</v>
       </c>
       <c r="K8">
-        <v>0.8035719337680119</v>
+        <v>0.803571933768012</v>
       </c>
       <c r="L8">
         <v>0.5302230813159234</v>
@@ -725,7 +725,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -768,7 +768,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -811,7 +811,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -833,7 +833,7 @@
         <v>0.7969258089635183</v>
       </c>
       <c r="H11">
-        <v>0.8035719337680119</v>
+        <v>0.803571933768012</v>
       </c>
       <c r="I11">
         <v>0.8077499356638174</v>
@@ -854,7 +854,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -897,7 +897,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
@@ -953,69 +953,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -1058,7 +1058,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -1074,7 +1074,7 @@
         <v>0.46515625</v>
       </c>
       <c r="F3">
-        <v>0.8384374999999999</v>
+        <v>0.8384375</v>
       </c>
       <c r="G3">
         <v>0.83578125</v>
@@ -1092,7 +1092,7 @@
         <v>0.784125</v>
       </c>
       <c r="L3">
-        <v>0.6988124999999999</v>
+        <v>0.6988125</v>
       </c>
       <c r="M3">
         <v>0.739375</v>
@@ -1101,7 +1101,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -1144,7 +1144,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
@@ -1187,14 +1187,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
         <v>0.3283125</v>
       </c>
       <c r="C6">
-        <v>0.8384374999999999</v>
+        <v>0.8384375</v>
       </c>
       <c r="D6">
         <v>0.6174375</v>
@@ -1230,7 +1230,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -1264,7 +1264,7 @@
         <v>0.91421875</v>
       </c>
       <c r="L7">
-        <v>0.7769374999999999</v>
+        <v>0.7769375</v>
       </c>
       <c r="M7">
         <v>0.85340625</v>
@@ -1273,7 +1273,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -1316,7 +1316,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -1359,7 +1359,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -1402,7 +1402,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -1439,20 +1439,20 @@
         <v>0.7394375</v>
       </c>
       <c r="M11">
-        <v>0.8071874999999999</v>
+        <v>0.8071875</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
         <v>0.41796875</v>
       </c>
       <c r="C12">
-        <v>0.6988124999999999</v>
+        <v>0.6988125</v>
       </c>
       <c r="D12">
         <v>0.57325</v>
@@ -1464,7 +1464,7 @@
         <v>0.7799375</v>
       </c>
       <c r="G12">
-        <v>0.7769374999999999</v>
+        <v>0.7769375</v>
       </c>
       <c r="H12">
         <v>0.7778125</v>
@@ -1488,7 +1488,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
@@ -1519,7 +1519,7 @@
         <v>0.8079375</v>
       </c>
       <c r="K13">
-        <v>0.8071874999999999</v>
+        <v>0.8071875</v>
       </c>
       <c r="L13">
         <v>0.69459375</v>
@@ -1544,69 +1544,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -1634,7 +1634,7 @@
         <v>0.6694687500000001</v>
       </c>
       <c r="J2">
-        <v>0.6451249999999999</v>
+        <v>0.645125</v>
       </c>
       <c r="K2">
         <v>0.64790625</v>
@@ -1649,7 +1649,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -1692,7 +1692,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -1735,7 +1735,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
@@ -1778,7 +1778,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -1812,7 +1812,7 @@
         <v>0.0819375</v>
       </c>
       <c r="L6">
-        <v>0.2200625</v>
+        <v>0.2200625000000001</v>
       </c>
       <c r="M6">
         <v>0.14275</v>
@@ -1821,7 +1821,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -1864,7 +1864,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -1907,7 +1907,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07284374999999998</v>
+        <v>0.07284374999999999</v>
       </c>
       <c r="K9">
         <v>0.08303125</v>
@@ -1950,11 +1950,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.6451249999999999</v>
+        <v>0.645125</v>
       </c>
       <c r="C10">
         <v>0.205125</v>
@@ -1975,7 +1975,7 @@
         <v>0.07406250000000003</v>
       </c>
       <c r="I10">
-        <v>0.07284374999999998</v>
+        <v>0.07284374999999999</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         <v>0.1359375</v>
       </c>
       <c r="L10">
-        <v>0.2513125</v>
+        <v>0.2513125000000001</v>
       </c>
       <c r="M10">
         <v>0.1920625</v>
@@ -1993,7 +1993,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -2036,7 +2036,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -2052,7 +2052,7 @@
         <v>0.514875</v>
       </c>
       <c r="F12">
-        <v>0.2200625</v>
+        <v>0.2200625000000001</v>
       </c>
       <c r="G12">
         <v>0.2230625000000001</v>
@@ -2064,7 +2064,7 @@
         <v>0.22003125</v>
       </c>
       <c r="J12">
-        <v>0.2513125</v>
+        <v>0.2513125000000001</v>
       </c>
       <c r="K12">
         <v>0.2605625</v>
@@ -2079,7 +2079,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
